--- a/并行EVM主要叙事项目市场规模统计.xlsx
+++ b/并行EVM主要叙事项目市场规模统计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="13160"/>
+    <workbookView windowWidth="24800" windowHeight="11140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>名称</t>
   </si>
@@ -37,139 +38,181 @@
     <t>24H交易量</t>
   </si>
   <si>
+    <t>融资轮次</t>
+  </si>
+  <si>
+    <t>融资金额</t>
+  </si>
+  <si>
+    <t>融资日期</t>
+  </si>
+  <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>主网</t>
+  </si>
+  <si>
+    <t>$450亿</t>
+  </si>
+  <si>
+    <t>$22亿</t>
+  </si>
+  <si>
+    <t>私募代币销售轮</t>
+  </si>
+  <si>
+    <t>$3.14亿</t>
+  </si>
+  <si>
+    <t>Aptos</t>
+  </si>
+  <si>
+    <t>$33亿</t>
+  </si>
+  <si>
+    <t>$1.6亿</t>
+  </si>
+  <si>
+    <t>战略融资</t>
+  </si>
+  <si>
+    <t>未披露</t>
+  </si>
+  <si>
+    <t>Sei v2</t>
+  </si>
+  <si>
+    <t>$21亿</t>
+  </si>
+  <si>
+    <t>$3.9亿</t>
+  </si>
+  <si>
+    <t>Sui</t>
+  </si>
+  <si>
+    <t>$19亿</t>
+  </si>
+  <si>
+    <t>$3.5亿</t>
+  </si>
+  <si>
+    <t>B轮</t>
+  </si>
+  <si>
+    <t>$3亿</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>$6900万</t>
+  </si>
+  <si>
+    <t>$290万</t>
+  </si>
+  <si>
+    <t>公募轮</t>
+  </si>
+  <si>
+    <t>$500万</t>
+  </si>
+  <si>
+    <t>Monad</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>测试网</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>种子轮</t>
+  </si>
+  <si>
+    <t>$1900万</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>$900万</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>$8000万</t>
+  </si>
+  <si>
+    <t>Lumio</t>
+  </si>
+  <si>
+    <t>CoinMarketCap</t>
+  </si>
+  <si>
+    <t>RootData</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
     <t>生态项目数量</t>
   </si>
   <si>
-    <t>融资轮次</t>
-  </si>
-  <si>
-    <t>融资金额</t>
-  </si>
-  <si>
-    <t>融资日期</t>
-  </si>
-  <si>
-    <t>Solana</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>主网</t>
-  </si>
-  <si>
-    <t>$450亿</t>
-  </si>
-  <si>
-    <t>$22亿</t>
-  </si>
-  <si>
-    <t>私募代币销售轮</t>
-  </si>
-  <si>
-    <t>$3.14亿</t>
-  </si>
-  <si>
-    <t>Aptos</t>
-  </si>
-  <si>
-    <t>$33亿</t>
-  </si>
-  <si>
-    <t>$1.6亿</t>
-  </si>
-  <si>
-    <t>战略融资</t>
-  </si>
-  <si>
-    <t>未披露</t>
-  </si>
-  <si>
-    <t>Sei v2</t>
-  </si>
-  <si>
-    <t>$21亿</t>
-  </si>
-  <si>
-    <t>$3.9亿</t>
-  </si>
-  <si>
-    <t>Sui</t>
-  </si>
-  <si>
-    <t>$19亿</t>
-  </si>
-  <si>
-    <t>$3.5亿</t>
-  </si>
-  <si>
-    <t>B轮</t>
-  </si>
-  <si>
-    <t>$3亿</t>
-  </si>
-  <si>
-    <t>Neon</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>$6900万</t>
-  </si>
-  <si>
-    <t>$290万</t>
-  </si>
-  <si>
-    <t>公募轮</t>
-  </si>
-  <si>
-    <t>$500万</t>
-  </si>
-  <si>
-    <t>Monad</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>测试网</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>种子轮</t>
-  </si>
-  <si>
-    <t>$1900万</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>$900万</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>$8000万</t>
-  </si>
-  <si>
-    <t>Lumio</t>
-  </si>
-  <si>
-    <t>CoinMarketCap</t>
-  </si>
-  <si>
-    <t>RootData</t>
+    <t>DeFi</t>
+  </si>
+  <si>
+    <t>NFT</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>元宇宙</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>以太坊</t>
+  </si>
+  <si>
+    <t>28300*</t>
+  </si>
+  <si>
+    <t>10000*</t>
+  </si>
+  <si>
+    <t>EtherScan</t>
+  </si>
+  <si>
+    <t>Solana Explorer</t>
+  </si>
+  <si>
+    <t>Aptos Explorer</t>
+  </si>
+  <si>
+    <t>Sei Blog</t>
+  </si>
+  <si>
+    <t>Monad Homepage</t>
   </si>
 </sst>
 </file>
@@ -786,8 +829,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1321,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1334,12 +1383,11 @@
     <col min="5" max="5" width="16.5384615384615" customWidth="1"/>
     <col min="6" max="6" width="15.1538461538462" customWidth="1"/>
     <col min="7" max="7" width="16.5384615384615" customWidth="1"/>
-    <col min="8" max="8" width="15.1538461538462" customWidth="1"/>
-    <col min="9" max="9" width="17.6153846153846" customWidth="1"/>
-    <col min="11" max="11" width="16.9230769230769"/>
+    <col min="8" max="8" width="17.6153846153846" customWidth="1"/>
+    <col min="10" max="10" width="16.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,344 +1418,549 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3">
+        <v>103.55</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="18.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="15.1538461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2256</v>
+      </c>
+      <c r="D2" s="1">
+        <v>805</v>
+      </c>
       <c r="E2" s="1">
-        <v>103.55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>563</v>
-      </c>
-      <c r="I2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="1">
+        <v>141</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3191</v>
+      </c>
+      <c r="C3" s="1">
+        <v>561</v>
+      </c>
+      <c r="D3" s="1">
+        <v>151</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44356</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9.12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>159</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
-      <c r="A4" t="s">
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2">
-        <v>45245</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>99</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44812</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44831</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2">
-        <v>44810</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/并行EVM主要叙事项目市场规模统计.xlsx
+++ b/并行EVM主要叙事项目市场规模统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11140" activeTab="1"/>
+    <workbookView windowWidth="27800" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>

--- a/并行EVM主要叙事项目市场规模统计.xlsx
+++ b/并行EVM主要叙事项目市场规模统计.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27800" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="27660" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>名称</t>
   </si>
@@ -213,6 +215,99 @@
   </si>
   <si>
     <t>Monad Homepage</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>&lt; 2</t>
+  </si>
+  <si>
+    <t>&lt; 0</t>
+  </si>
+  <si>
+    <t>从账本中读取A的账户余额和C的账户余额</t>
+  </si>
+  <si>
+    <t>2-0.5</t>
+  </si>
+  <si>
+    <t>0+0.5</t>
+  </si>
+  <si>
+    <t>计算收支平衡：A账户余额减去0.5，C账户余额增加0.5</t>
+  </si>
+  <si>
+    <t>&gt; 1.5</t>
+  </si>
+  <si>
+    <t>&gt; 0.5</t>
+  </si>
+  <si>
+    <t>将A和C的账户余额更新回账本</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>&lt; 0.5</t>
+  </si>
+  <si>
+    <t>从账本中读取B的账户余额和C的账户余额</t>
+  </si>
+  <si>
+    <t>1-0.5</t>
+  </si>
+  <si>
+    <t>0.5+0.5</t>
+  </si>
+  <si>
+    <t>计算收支平衡：B账户余额减去0.5，C账户余额增加 0.5</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>将B和C的账户余额更新回账本</t>
+  </si>
+  <si>
+    <t>并行任务1：从账本中读取A和C的账户余额</t>
+  </si>
+  <si>
+    <t>并行任务1：计算收支平衡，A账户余额减去0.5，C账户余额增加0.5</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>并行任务2：从账本中读取B和C的账户余额（注意，还是0！）</t>
+  </si>
+  <si>
+    <t>并行任务1：将A和C的账户余额更新回账本</t>
+  </si>
+  <si>
+    <t>*5</t>
+  </si>
+  <si>
+    <t>并行任务2：计算收支平衡，B账户余额减去0.5，C账户余额增加0.5</t>
+  </si>
+  <si>
+    <t>*6</t>
+  </si>
+  <si>
+    <t>并行任务2：将B和C的账户余额更新回账本</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1833,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
@@ -1967,4 +2062,282 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="52.7115384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="71.0769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>